--- a/Ultra_Lite.xlsx
+++ b/Ultra_Lite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EM\UltraLite\UltraLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CD4B07-8EDF-4629-8DEE-BCF25C6256E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A0EF2-B0B8-476D-BD97-A824051AF205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6360" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ultra_Lite_CAN_Spec" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4509" uniqueCount="483">
   <si>
     <t>MCU</t>
   </si>
@@ -852,9 +852,6 @@
     <t>Under_Voltage</t>
   </si>
   <si>
-    <t>Motor_Stall_Detection</t>
-  </si>
-  <si>
     <t>Motor_Unint_AccDeacc</t>
   </si>
   <si>
@@ -1464,6 +1461,36 @@
   <si>
     <t>Estimated from measured cell voltage - cell16</t>
   </si>
+  <si>
+    <t>Motor_Hall_Sensor_Error</t>
+  </si>
+  <si>
+    <t>Throttle_Error</t>
+  </si>
+  <si>
+    <t>MCU_Low_Voltage_Err</t>
+  </si>
+  <si>
+    <t>MCU_High_Voltage_Err</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>0x303</t>
+  </si>
+  <si>
+    <t>MCU_Temp_Data</t>
+  </si>
+  <si>
+    <t>Controller_Temp_Data</t>
+  </si>
+  <si>
+    <t>Motor_Temp_Data</t>
+  </si>
+  <si>
+    <t>Motor_RPM</t>
+  </si>
 </sst>
 </file>
 
@@ -1966,11 +1993,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG1022"/>
+  <dimension ref="A1:AG1029"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2001,10 +2028,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -2069,7 +2096,7 @@
     </row>
     <row r="2" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>23</v>
@@ -2081,7 +2108,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>26</v>
@@ -2090,7 +2117,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>28</v>
@@ -2147,7 +2174,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>28</v>
@@ -2167,7 +2194,7 @@
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q3" s="10" t="b">
         <v>1</v>
@@ -2191,7 +2218,7 @@
         <v>112</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
@@ -2215,7 +2242,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>26</v>
@@ -2244,7 +2271,7 @@
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="10" t="b">
         <v>1</v>
@@ -2261,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="W4" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="X4" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
@@ -2278,7 +2305,7 @@
     </row>
     <row r="5" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>23</v>
@@ -2290,7 +2317,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>26</v>
@@ -2376,7 +2403,7 @@
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="10" t="b">
         <v>1</v>
@@ -2453,7 +2480,7 @@
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q7" s="10" t="b">
         <v>1</v>
@@ -2530,7 +2557,7 @@
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="10" t="b">
         <v>1</v>
@@ -2607,7 +2634,7 @@
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q9" s="10" t="b">
         <v>1</v>
@@ -2645,7 +2672,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
@@ -2657,7 +2684,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>26</v>
@@ -2743,7 +2770,7 @@
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="10" t="b">
         <v>1</v>
@@ -2820,7 +2847,7 @@
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="10" t="b">
         <v>1</v>
@@ -2897,7 +2924,7 @@
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="10" t="b">
         <v>1</v>
@@ -2974,7 +3001,7 @@
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="10" t="b">
         <v>1</v>
@@ -3012,7 +3039,7 @@
     </row>
     <row r="15" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>23</v>
@@ -3024,7 +3051,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>26</v>
@@ -3110,7 +3137,7 @@
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="10" t="b">
         <v>1</v>
@@ -3187,7 +3214,7 @@
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="10" t="b">
         <v>1</v>
@@ -3264,7 +3291,7 @@
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q18" s="10" t="b">
         <v>1</v>
@@ -3341,7 +3368,7 @@
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q19" s="10" t="b">
         <v>1</v>
@@ -3379,7 +3406,7 @@
     </row>
     <row r="20" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -3391,7 +3418,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>26</v>
@@ -3477,7 +3504,7 @@
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q21" s="10" t="b">
         <v>1</v>
@@ -3554,7 +3581,7 @@
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="10" t="b">
         <v>1</v>
@@ -3602,7 +3629,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>26</v>
@@ -3631,7 +3658,7 @@
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="10" t="b">
         <v>1</v>
@@ -3679,7 +3706,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>26</v>
@@ -3708,7 +3735,7 @@
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q24" s="10" t="b">
         <v>1</v>
@@ -3746,7 +3773,7 @@
     </row>
     <row r="25" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>23</v>
@@ -3758,7 +3785,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>26</v>
@@ -3844,7 +3871,7 @@
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q26" s="10" t="b">
         <v>1</v>
@@ -3868,7 +3895,7 @@
         <v>37</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -3921,7 +3948,7 @@
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q27" s="10" t="b">
         <v>1</v>
@@ -3945,7 +3972,7 @@
         <v>37</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
@@ -3959,7 +3986,7 @@
     </row>
     <row r="28" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>23</v>
@@ -3971,7 +3998,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>26</v>
@@ -4057,7 +4084,7 @@
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="10" t="b">
         <v>1</v>
@@ -4081,7 +4108,7 @@
         <v>61</v>
       </c>
       <c r="X29" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
@@ -4134,7 +4161,7 @@
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q30" s="10" t="b">
         <v>1</v>
@@ -4158,7 +4185,7 @@
         <v>61</v>
       </c>
       <c r="X30" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
@@ -4172,7 +4199,7 @@
     </row>
     <row r="31" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>23</v>
@@ -4184,7 +4211,7 @@
         <v>24</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>26</v>
@@ -4270,7 +4297,7 @@
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q32" s="10" t="b">
         <v>1</v>
@@ -4294,7 +4321,7 @@
         <v>61</v>
       </c>
       <c r="X32" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
@@ -4347,7 +4374,7 @@
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q33" s="10" t="b">
         <v>1</v>
@@ -4371,7 +4398,7 @@
         <v>61</v>
       </c>
       <c r="X33" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
@@ -4385,7 +4412,7 @@
     </row>
     <row r="34" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>23</v>
@@ -4397,7 +4424,7 @@
         <v>24</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>26</v>
@@ -4483,7 +4510,7 @@
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q35" s="10" t="b">
         <v>1</v>
@@ -4560,7 +4587,7 @@
       </c>
       <c r="O36" s="11"/>
       <c r="P36" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q36" s="10" t="b">
         <v>1</v>
@@ -4598,7 +4625,7 @@
     </row>
     <row r="37" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>23</v>
@@ -4610,7 +4637,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>26</v>
@@ -4696,7 +4723,7 @@
       </c>
       <c r="O38" s="11"/>
       <c r="P38" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q38" s="10" t="b">
         <v>1</v>
@@ -4773,7 +4800,7 @@
       </c>
       <c r="O39" s="11"/>
       <c r="P39" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q39" s="10" t="b">
         <v>1</v>
@@ -4823,7 +4850,7 @@
         <v>24</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>26</v>
@@ -4935,7 +4962,7 @@
         <v>30</v>
       </c>
       <c r="X41" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -5796,7 +5823,7 @@
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
     </row>
-    <row r="53" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
         <v>23</v>
@@ -5983,7 +6010,7 @@
         <v>25</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M55" s="9">
         <v>1</v>
@@ -6060,7 +6087,7 @@
         <v>25</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M56" s="9">
         <v>1</v>
@@ -6214,7 +6241,7 @@
         <v>25</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M58" s="9">
         <v>1</v>
@@ -6293,7 +6320,7 @@
         <v>25</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M59" s="9">
         <v>1</v>
@@ -6351,7 +6378,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>26</v>
@@ -6430,7 +6457,7 @@
         <v>27</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>26</v>
@@ -6509,7 +6536,7 @@
         <v>27</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>26</v>
@@ -6588,7 +6615,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>26</v>
@@ -6667,7 +6694,7 @@
         <v>27</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>26</v>
@@ -6746,7 +6773,7 @@
         <v>27</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>26</v>
@@ -6825,7 +6852,7 @@
         <v>27</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>26</v>
@@ -6904,7 +6931,7 @@
         <v>27</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>26</v>
@@ -6983,7 +7010,7 @@
         <v>27</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>26</v>
@@ -7062,7 +7089,7 @@
         <v>27</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>26</v>
@@ -7141,7 +7168,7 @@
         <v>27</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>26</v>
@@ -7220,7 +7247,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>26</v>
@@ -7299,7 +7326,7 @@
         <v>27</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>26</v>
@@ -7378,7 +7405,7 @@
         <v>27</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>26</v>
@@ -7457,7 +7484,7 @@
         <v>27</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>26</v>
@@ -7536,7 +7563,7 @@
         <v>27</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>26</v>
@@ -7617,7 +7644,7 @@
         <v>24</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>26</v>
@@ -7818,7 +7845,7 @@
     </row>
     <row r="79" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>23</v>
@@ -7830,7 +7857,7 @@
         <v>24</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>26</v>
@@ -7914,7 +7941,7 @@
       </c>
       <c r="O80" s="11"/>
       <c r="P80" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q80" s="10" t="b">
         <v>1</v>
@@ -7989,7 +8016,7 @@
       </c>
       <c r="O81" s="11"/>
       <c r="P81" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q81" s="10" t="b">
         <v>1</v>
@@ -8039,7 +8066,7 @@
         <v>24</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>26</v>
@@ -8048,7 +8075,7 @@
         <v>28</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>25</v>
@@ -8105,7 +8132,7 @@
         <v>28</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>25</v>
@@ -8329,7 +8356,7 @@
         <v>24</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>26</v>
@@ -8696,7 +8723,7 @@
         <v>24</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>26</v>
@@ -9035,7 +9062,7 @@
     </row>
     <row r="96" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>23</v>
@@ -9047,7 +9074,7 @@
         <v>24</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>26</v>
@@ -9133,7 +9160,7 @@
       </c>
       <c r="O97" s="11"/>
       <c r="P97" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q97" s="10" t="b">
         <v>1</v>
@@ -9206,7 +9233,7 @@
       </c>
       <c r="O98" s="11"/>
       <c r="P98" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q98" s="10" t="b">
         <v>1</v>
@@ -9279,7 +9306,7 @@
       </c>
       <c r="O99" s="11"/>
       <c r="P99" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q99" s="10" t="b">
         <v>1</v>
@@ -9352,7 +9379,7 @@
       </c>
       <c r="O100" s="11"/>
       <c r="P100" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q100" s="10" t="b">
         <v>1</v>
@@ -9386,7 +9413,7 @@
     </row>
     <row r="101" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>23</v>
@@ -9398,7 +9425,7 @@
         <v>24</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>26</v>
@@ -9484,7 +9511,7 @@
       </c>
       <c r="O102" s="11"/>
       <c r="P102" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q102" s="10" t="b">
         <v>1</v>
@@ -9557,7 +9584,7 @@
       </c>
       <c r="O103" s="11"/>
       <c r="P103" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q103" s="10" t="b">
         <v>1</v>
@@ -9630,7 +9657,7 @@
       </c>
       <c r="O104" s="11"/>
       <c r="P104" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q104" s="10" t="b">
         <v>1</v>
@@ -9703,7 +9730,7 @@
       </c>
       <c r="O105" s="11"/>
       <c r="P105" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q105" s="10" t="b">
         <v>1</v>
@@ -9737,7 +9764,7 @@
     </row>
     <row r="106" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>23</v>
@@ -9749,7 +9776,7 @@
         <v>24</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>26</v>
@@ -9835,7 +9862,7 @@
       </c>
       <c r="O107" s="11"/>
       <c r="P107" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q107" s="10" t="b">
         <v>1</v>
@@ -9908,7 +9935,7 @@
       </c>
       <c r="O108" s="11"/>
       <c r="P108" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q108" s="10" t="b">
         <v>1</v>
@@ -9952,7 +9979,7 @@
         <v>27</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>26</v>
@@ -9981,7 +10008,7 @@
       </c>
       <c r="O109" s="11"/>
       <c r="P109" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q109" s="10" t="b">
         <v>1</v>
@@ -10001,7 +10028,7 @@
         <v>132</v>
       </c>
       <c r="X109" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
@@ -10025,7 +10052,7 @@
         <v>27</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>26</v>
@@ -10054,7 +10081,7 @@
       </c>
       <c r="O110" s="11"/>
       <c r="P110" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q110" s="10" t="b">
         <v>1</v>
@@ -10074,7 +10101,7 @@
         <v>132</v>
       </c>
       <c r="X110" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
@@ -10088,7 +10115,7 @@
     </row>
     <row r="111" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>23</v>
@@ -10100,7 +10127,7 @@
         <v>24</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>26</v>
@@ -10188,7 +10215,7 @@
       </c>
       <c r="O112" s="11"/>
       <c r="P112" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q112" s="10" t="b">
         <v>1</v>
@@ -10263,7 +10290,7 @@
       </c>
       <c r="O113" s="11"/>
       <c r="P113" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q113" s="10" t="b">
         <v>1</v>
@@ -10340,7 +10367,7 @@
       </c>
       <c r="O114" s="11"/>
       <c r="P114" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q114" s="10" t="b">
         <v>1</v>
@@ -10374,7 +10401,7 @@
     </row>
     <row r="115" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>23</v>
@@ -10386,7 +10413,7 @@
         <v>24</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>26</v>
@@ -10395,7 +10422,7 @@
         <v>28</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>28</v>
@@ -10452,7 +10479,7 @@
         <v>28</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>28</v>
@@ -10472,7 +10499,7 @@
       </c>
       <c r="O116" s="11"/>
       <c r="P116" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q116" s="10" t="b">
         <v>1</v>
@@ -10545,7 +10572,7 @@
       </c>
       <c r="O117" s="11"/>
       <c r="P117" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q117" s="10" t="b">
         <v>1</v>
@@ -10583,7 +10610,7 @@
     </row>
     <row r="118" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>23</v>
@@ -10595,7 +10622,7 @@
         <v>24</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>26</v>
@@ -10604,7 +10631,7 @@
         <v>28</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>28</v>
@@ -10661,7 +10688,7 @@
         <v>28</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I119" s="9" t="s">
         <v>28</v>
@@ -10681,7 +10708,7 @@
       </c>
       <c r="O119" s="11"/>
       <c r="P119" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q119" s="10" t="b">
         <v>1</v>
@@ -10752,7 +10779,7 @@
       </c>
       <c r="O120" s="11"/>
       <c r="P120" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q120" s="10" t="b">
         <v>1</v>
@@ -10784,7 +10811,7 @@
     </row>
     <row r="121" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>23</v>
@@ -10796,7 +10823,7 @@
         <v>24</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>26</v>
@@ -10884,7 +10911,7 @@
       </c>
       <c r="O122" s="11"/>
       <c r="P122" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q122" s="9" t="b">
         <v>1</v>
@@ -10963,7 +10990,7 @@
       </c>
       <c r="O123" s="11"/>
       <c r="P123" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q123" s="9" t="b">
         <v>1</v>
@@ -11042,7 +11069,7 @@
       </c>
       <c r="O124" s="11"/>
       <c r="P124" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q124" s="9" t="b">
         <v>1</v>
@@ -11119,7 +11146,7 @@
       </c>
       <c r="O125" s="11"/>
       <c r="P125" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q125" s="9" t="b">
         <v>1</v>
@@ -11196,7 +11223,7 @@
       </c>
       <c r="O126" s="11"/>
       <c r="P126" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q126" s="9" t="b">
         <v>1</v>
@@ -11232,7 +11259,7 @@
     </row>
     <row r="127" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>23</v>
@@ -11244,7 +11271,7 @@
         <v>24</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>26</v>
@@ -11253,7 +11280,7 @@
         <v>28</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I127" s="6" t="s">
         <v>28</v>
@@ -11310,7 +11337,7 @@
         <v>28</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I128" s="9" t="s">
         <v>28</v>
@@ -11332,7 +11359,7 @@
       </c>
       <c r="O128" s="11"/>
       <c r="P128" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q128" s="10" t="b">
         <v>1</v>
@@ -11389,7 +11416,7 @@
         <v>28</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I129" s="9" t="s">
         <v>28</v>
@@ -11401,7 +11428,7 @@
         <v>25</v>
       </c>
       <c r="L129" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M129" s="9">
         <v>1</v>
@@ -11411,7 +11438,7 @@
       </c>
       <c r="O129" s="11"/>
       <c r="P129" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q129" s="10" t="b">
         <v>1</v>
@@ -11435,7 +11462,7 @@
         <v>30</v>
       </c>
       <c r="X129" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
@@ -11468,7 +11495,7 @@
         <v>28</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I130" s="9" t="s">
         <v>28</v>
@@ -11490,7 +11517,7 @@
       </c>
       <c r="O130" s="11"/>
       <c r="P130" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q130" s="10" t="b">
         <v>1</v>
@@ -11547,7 +11574,7 @@
         <v>28</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I131" s="9" t="s">
         <v>28</v>
@@ -11569,7 +11596,7 @@
       </c>
       <c r="O131" s="11"/>
       <c r="P131" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q131" s="10" t="b">
         <v>1</v>
@@ -11593,7 +11620,7 @@
         <v>30</v>
       </c>
       <c r="X131" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
@@ -11626,7 +11653,7 @@
         <v>28</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I132" s="9" t="s">
         <v>28</v>
@@ -11648,7 +11675,7 @@
       </c>
       <c r="O132" s="11"/>
       <c r="P132" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q132" s="10" t="b">
         <v>1</v>
@@ -11705,7 +11732,7 @@
         <v>28</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>28</v>
@@ -11727,7 +11754,7 @@
       </c>
       <c r="O133" s="11"/>
       <c r="P133" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q133" s="10" t="b">
         <v>1</v>
@@ -11751,7 +11778,7 @@
         <v>30</v>
       </c>
       <c r="X133" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
@@ -11784,7 +11811,7 @@
         <v>28</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>28</v>
@@ -11806,7 +11833,7 @@
       </c>
       <c r="O134" s="11"/>
       <c r="P134" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q134" s="10" t="b">
         <v>1</v>
@@ -11863,7 +11890,7 @@
         <v>28</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>28</v>
@@ -11885,7 +11912,7 @@
       </c>
       <c r="O135" s="11"/>
       <c r="P135" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q135" s="10" t="b">
         <v>1</v>
@@ -11909,7 +11936,7 @@
         <v>30</v>
       </c>
       <c r="X135" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
@@ -11942,7 +11969,7 @@
         <v>28</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>28</v>
@@ -11964,7 +11991,7 @@
       </c>
       <c r="O136" s="11"/>
       <c r="P136" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q136" s="10" t="b">
         <v>1</v>
@@ -11988,7 +12015,7 @@
         <v>30</v>
       </c>
       <c r="X136" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
@@ -12021,7 +12048,7 @@
         <v>28</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I137" s="9" t="s">
         <v>28</v>
@@ -12043,7 +12070,7 @@
       </c>
       <c r="O137" s="11"/>
       <c r="P137" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q137" s="10" t="b">
         <v>1</v>
@@ -12067,7 +12094,7 @@
         <v>30</v>
       </c>
       <c r="X137" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
@@ -12100,7 +12127,7 @@
         <v>28</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>28</v>
@@ -12122,7 +12149,7 @@
       </c>
       <c r="O138" s="11"/>
       <c r="P138" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q138" s="10" t="b">
         <v>1</v>
@@ -12146,7 +12173,7 @@
         <v>30</v>
       </c>
       <c r="X138" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
@@ -12179,7 +12206,7 @@
         <v>28</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I139" s="9" t="s">
         <v>28</v>
@@ -12201,7 +12228,7 @@
       </c>
       <c r="O139" s="11"/>
       <c r="P139" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q139" s="10" t="b">
         <v>1</v>
@@ -12225,7 +12252,7 @@
         <v>30</v>
       </c>
       <c r="X139" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
@@ -12258,7 +12285,7 @@
         <v>28</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I140" s="9" t="s">
         <v>28</v>
@@ -12280,7 +12307,7 @@
       </c>
       <c r="O140" s="11"/>
       <c r="P140" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q140" s="10" t="b">
         <v>1</v>
@@ -12304,7 +12331,7 @@
         <v>30</v>
       </c>
       <c r="X140" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
@@ -12337,7 +12364,7 @@
         <v>28</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I141" s="9" t="s">
         <v>28</v>
@@ -12359,7 +12386,7 @@
       </c>
       <c r="O141" s="11"/>
       <c r="P141" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q141" s="10" t="b">
         <v>1</v>
@@ -12383,7 +12410,7 @@
         <v>30</v>
       </c>
       <c r="X141" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
@@ -12416,7 +12443,7 @@
         <v>28</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I142" s="9" t="s">
         <v>28</v>
@@ -12438,7 +12465,7 @@
       </c>
       <c r="O142" s="11"/>
       <c r="P142" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q142" s="10" t="b">
         <v>1</v>
@@ -12462,7 +12489,7 @@
         <v>30</v>
       </c>
       <c r="X142" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
@@ -12495,7 +12522,7 @@
         <v>28</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I143" s="9" t="s">
         <v>28</v>
@@ -12517,7 +12544,7 @@
       </c>
       <c r="O143" s="11"/>
       <c r="P143" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q143" s="10" t="b">
         <v>1</v>
@@ -12541,7 +12568,7 @@
         <v>30</v>
       </c>
       <c r="X143" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
@@ -12574,7 +12601,7 @@
         <v>28</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I144" s="9" t="s">
         <v>28</v>
@@ -12596,7 +12623,7 @@
       </c>
       <c r="O144" s="11"/>
       <c r="P144" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q144" s="10" t="b">
         <v>1</v>
@@ -12620,7 +12647,7 @@
         <v>30</v>
       </c>
       <c r="X144" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
@@ -12653,7 +12680,7 @@
         <v>28</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I145" s="9" t="s">
         <v>28</v>
@@ -12675,7 +12702,7 @@
       </c>
       <c r="O145" s="11"/>
       <c r="P145" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q145" s="10" t="b">
         <v>1</v>
@@ -12699,7 +12726,7 @@
         <v>30</v>
       </c>
       <c r="X145" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
@@ -12732,7 +12759,7 @@
         <v>28</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I146" s="9" t="s">
         <v>28</v>
@@ -12754,7 +12781,7 @@
       </c>
       <c r="O146" s="11"/>
       <c r="P146" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q146" s="10" t="b">
         <v>1</v>
@@ -12778,7 +12805,7 @@
         <v>30</v>
       </c>
       <c r="X146" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
@@ -12811,7 +12838,7 @@
         <v>28</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I147" s="9" t="s">
         <v>28</v>
@@ -12833,7 +12860,7 @@
       </c>
       <c r="O147" s="11"/>
       <c r="P147" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q147" s="10" t="b">
         <v>1</v>
@@ -12857,7 +12884,7 @@
         <v>30</v>
       </c>
       <c r="X147" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
@@ -12890,7 +12917,7 @@
         <v>28</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I148" s="9" t="s">
         <v>28</v>
@@ -12912,7 +12939,7 @@
       </c>
       <c r="O148" s="11"/>
       <c r="P148" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q148" s="10" t="b">
         <v>1</v>
@@ -12936,7 +12963,7 @@
         <v>30</v>
       </c>
       <c r="X148" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
@@ -12948,7 +12975,7 @@
       <c r="AF148" s="4"/>
       <c r="AG148" s="4"/>
     </row>
-    <row r="149" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:33" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" s="9" t="s">
         <v>23</v>
@@ -12969,7 +12996,7 @@
         <v>28</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I149" s="9" t="s">
         <v>28</v>
@@ -12991,7 +13018,7 @@
       </c>
       <c r="O149" s="11"/>
       <c r="P149" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q149" s="10" t="b">
         <v>1</v>
@@ -13015,7 +13042,7 @@
         <v>30</v>
       </c>
       <c r="X149" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
@@ -13048,7 +13075,7 @@
         <v>28</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I150" s="9" t="s">
         <v>28</v>
@@ -13070,7 +13097,7 @@
       </c>
       <c r="O150" s="11"/>
       <c r="P150" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q150" s="10" t="b">
         <v>1</v>
@@ -13094,7 +13121,7 @@
         <v>30</v>
       </c>
       <c r="X150" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
@@ -13127,7 +13154,7 @@
         <v>28</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>28</v>
@@ -13149,7 +13176,7 @@
       </c>
       <c r="O151" s="11"/>
       <c r="P151" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q151" s="10" t="b">
         <v>1</v>
@@ -13173,7 +13200,7 @@
         <v>30</v>
       </c>
       <c r="X151" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
@@ -13206,7 +13233,7 @@
         <v>28</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I152" s="9" t="s">
         <v>28</v>
@@ -13228,7 +13255,7 @@
       </c>
       <c r="O152" s="11"/>
       <c r="P152" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q152" s="10" t="b">
         <v>1</v>
@@ -13252,7 +13279,7 @@
         <v>30</v>
       </c>
       <c r="X152" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
@@ -13266,7 +13293,7 @@
     </row>
     <row r="153" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>23</v>
@@ -13278,7 +13305,7 @@
         <v>24</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>26</v>
@@ -13364,7 +13391,7 @@
       </c>
       <c r="O154" s="11"/>
       <c r="P154" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q154" s="10" t="b">
         <v>1</v>
@@ -13388,7 +13415,7 @@
         <v>37</v>
       </c>
       <c r="X154" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
@@ -13441,7 +13468,7 @@
       </c>
       <c r="O155" s="11"/>
       <c r="P155" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q155" s="10" t="b">
         <v>1</v>
@@ -13465,7 +13492,7 @@
         <v>37</v>
       </c>
       <c r="X155" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
@@ -13518,7 +13545,7 @@
       </c>
       <c r="O156" s="11"/>
       <c r="P156" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q156" s="10" t="b">
         <v>1</v>
@@ -13542,7 +13569,7 @@
         <v>37</v>
       </c>
       <c r="X156" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
@@ -13595,7 +13622,7 @@
       </c>
       <c r="O157" s="11"/>
       <c r="P157" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q157" s="10" t="b">
         <v>1</v>
@@ -13619,7 +13646,7 @@
         <v>37</v>
       </c>
       <c r="X157" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
@@ -13633,7 +13660,7 @@
     </row>
     <row r="158" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>23</v>
@@ -13645,7 +13672,7 @@
         <v>24</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>26</v>
@@ -13731,7 +13758,7 @@
       </c>
       <c r="O159" s="11"/>
       <c r="P159" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q159" s="10" t="b">
         <v>1</v>
@@ -13755,7 +13782,7 @@
         <v>37</v>
       </c>
       <c r="X159" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
@@ -13808,7 +13835,7 @@
       </c>
       <c r="O160" s="11"/>
       <c r="P160" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q160" s="10" t="b">
         <v>1</v>
@@ -13832,7 +13859,7 @@
         <v>37</v>
       </c>
       <c r="X160" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
@@ -13885,7 +13912,7 @@
       </c>
       <c r="O161" s="11"/>
       <c r="P161" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q161" s="10" t="b">
         <v>1</v>
@@ -13909,7 +13936,7 @@
         <v>37</v>
       </c>
       <c r="X161" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
@@ -13962,7 +13989,7 @@
       </c>
       <c r="O162" s="11"/>
       <c r="P162" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q162" s="10" t="b">
         <v>1</v>
@@ -13986,7 +14013,7 @@
         <v>37</v>
       </c>
       <c r="X162" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
@@ -14000,7 +14027,7 @@
     </row>
     <row r="163" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>23</v>
@@ -14012,7 +14039,7 @@
         <v>24</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>26</v>
@@ -14098,7 +14125,7 @@
       </c>
       <c r="O164" s="11"/>
       <c r="P164" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q164" s="10" t="b">
         <v>1</v>
@@ -14122,7 +14149,7 @@
         <v>37</v>
       </c>
       <c r="X164" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
@@ -14175,7 +14202,7 @@
       </c>
       <c r="O165" s="11"/>
       <c r="P165" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q165" s="10" t="b">
         <v>1</v>
@@ -14199,7 +14226,7 @@
         <v>37</v>
       </c>
       <c r="X165" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
@@ -14252,7 +14279,7 @@
       </c>
       <c r="O166" s="11"/>
       <c r="P166" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q166" s="10" t="b">
         <v>1</v>
@@ -14276,7 +14303,7 @@
         <v>37</v>
       </c>
       <c r="X166" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
@@ -14329,7 +14356,7 @@
       </c>
       <c r="O167" s="11"/>
       <c r="P167" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q167" s="10" t="b">
         <v>1</v>
@@ -14353,7 +14380,7 @@
         <v>37</v>
       </c>
       <c r="X167" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
@@ -14367,7 +14394,7 @@
     </row>
     <row r="168" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>23</v>
@@ -14379,7 +14406,7 @@
         <v>24</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>26</v>
@@ -14465,7 +14492,7 @@
       </c>
       <c r="O169" s="11"/>
       <c r="P169" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q169" s="10" t="b">
         <v>1</v>
@@ -14489,7 +14516,7 @@
         <v>37</v>
       </c>
       <c r="X169" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
@@ -14542,7 +14569,7 @@
       </c>
       <c r="O170" s="11"/>
       <c r="P170" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q170" s="10" t="b">
         <v>1</v>
@@ -14566,7 +14593,7 @@
         <v>37</v>
       </c>
       <c r="X170" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
@@ -14590,7 +14617,7 @@
         <v>27</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>26</v>
@@ -14619,7 +14646,7 @@
       </c>
       <c r="O171" s="11"/>
       <c r="P171" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q171" s="10" t="b">
         <v>1</v>
@@ -14643,7 +14670,7 @@
         <v>37</v>
       </c>
       <c r="X171" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
@@ -14667,7 +14694,7 @@
         <v>27</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F172" s="9" t="s">
         <v>26</v>
@@ -14696,7 +14723,7 @@
       </c>
       <c r="O172" s="11"/>
       <c r="P172" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q172" s="10" t="b">
         <v>1</v>
@@ -14720,7 +14747,7 @@
         <v>37</v>
       </c>
       <c r="X172" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
@@ -14734,7 +14761,7 @@
     </row>
     <row r="173" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>23</v>
@@ -14746,7 +14773,7 @@
         <v>24</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>25</v>
@@ -14755,7 +14782,7 @@
         <v>26</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I173" s="6" t="s">
         <v>28</v>
@@ -14812,7 +14839,7 @@
         <v>26</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I174" s="9" t="s">
         <v>28</v>
@@ -14832,7 +14859,7 @@
       </c>
       <c r="O174" s="11"/>
       <c r="P174" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q174" s="10" t="b">
         <v>1</v>
@@ -14856,7 +14883,7 @@
         <v>112</v>
       </c>
       <c r="X174" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
@@ -14880,7 +14907,7 @@
         <v>27</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F175" s="9" t="s">
         <v>25</v>
@@ -14909,7 +14936,7 @@
       </c>
       <c r="O175" s="11"/>
       <c r="P175" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q175" s="10" t="b">
         <v>1</v>
@@ -14926,10 +14953,10 @@
         <v>0</v>
       </c>
       <c r="W175" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="X175" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="X175" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
@@ -14943,7 +14970,7 @@
     </row>
     <row r="176" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>23</v>
@@ -14955,7 +14982,7 @@
         <v>24</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>28</v>
@@ -15041,7 +15068,7 @@
       </c>
       <c r="O177" s="11"/>
       <c r="P177" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q177" s="10" t="b">
         <v>1</v>
@@ -15118,7 +15145,7 @@
       </c>
       <c r="O178" s="11"/>
       <c r="P178" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q178" s="10" t="b">
         <v>1</v>
@@ -15195,7 +15222,7 @@
       </c>
       <c r="O179" s="11"/>
       <c r="P179" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q179" s="10" t="b">
         <v>1</v>
@@ -15272,7 +15299,7 @@
       </c>
       <c r="O180" s="11"/>
       <c r="P180" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q180" s="10" t="b">
         <v>1</v>
@@ -15310,7 +15337,7 @@
     </row>
     <row r="181" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>23</v>
@@ -15322,7 +15349,7 @@
         <v>24</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>28</v>
@@ -15408,7 +15435,7 @@
       </c>
       <c r="O182" s="11"/>
       <c r="P182" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q182" s="10" t="b">
         <v>1</v>
@@ -15485,7 +15512,7 @@
       </c>
       <c r="O183" s="11"/>
       <c r="P183" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q183" s="10" t="b">
         <v>1</v>
@@ -15562,7 +15589,7 @@
       </c>
       <c r="O184" s="11"/>
       <c r="P184" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q184" s="10" t="b">
         <v>1</v>
@@ -15639,7 +15666,7 @@
       </c>
       <c r="O185" s="11"/>
       <c r="P185" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q185" s="10" t="b">
         <v>1</v>
@@ -15677,7 +15704,7 @@
     </row>
     <row r="186" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>23</v>
@@ -15689,7 +15716,7 @@
         <v>24</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>28</v>
@@ -15775,7 +15802,7 @@
       </c>
       <c r="O187" s="11"/>
       <c r="P187" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q187" s="10" t="b">
         <v>1</v>
@@ -15852,7 +15879,7 @@
       </c>
       <c r="O188" s="11"/>
       <c r="P188" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q188" s="10" t="b">
         <v>1</v>
@@ -15929,7 +15956,7 @@
       </c>
       <c r="O189" s="11"/>
       <c r="P189" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q189" s="10" t="b">
         <v>1</v>
@@ -16006,7 +16033,7 @@
       </c>
       <c r="O190" s="11"/>
       <c r="P190" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q190" s="10" t="b">
         <v>1</v>
@@ -16044,7 +16071,7 @@
     </row>
     <row r="191" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>23</v>
@@ -16056,7 +16083,7 @@
         <v>24</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>28</v>
@@ -16142,7 +16169,7 @@
       </c>
       <c r="O192" s="11"/>
       <c r="P192" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q192" s="10" t="b">
         <v>1</v>
@@ -16219,7 +16246,7 @@
       </c>
       <c r="O193" s="11"/>
       <c r="P193" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q193" s="10" t="b">
         <v>1</v>
@@ -16267,7 +16294,7 @@
         <v>27</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>28</v>
@@ -16296,7 +16323,7 @@
       </c>
       <c r="O194" s="11"/>
       <c r="P194" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q194" s="10" t="b">
         <v>1</v>
@@ -16344,7 +16371,7 @@
         <v>27</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F195" s="9" t="s">
         <v>28</v>
@@ -16373,7 +16400,7 @@
       </c>
       <c r="O195" s="11"/>
       <c r="P195" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q195" s="10" t="b">
         <v>1</v>
@@ -16411,7 +16438,7 @@
     </row>
     <row r="196" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>23</v>
@@ -16423,7 +16450,7 @@
         <v>24</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>28</v>
@@ -16509,7 +16536,7 @@
       </c>
       <c r="O197" s="11"/>
       <c r="P197" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q197" s="10" t="b">
         <v>1</v>
@@ -16586,7 +16613,7 @@
       </c>
       <c r="O198" s="11"/>
       <c r="P198" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q198" s="10" t="b">
         <v>1</v>
@@ -16624,7 +16651,7 @@
     </row>
     <row r="199" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>23</v>
@@ -16636,7 +16663,7 @@
         <v>24</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>28</v>
@@ -16722,7 +16749,7 @@
       </c>
       <c r="O200" s="11"/>
       <c r="P200" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q200" s="10" t="b">
         <v>1</v>
@@ -16746,7 +16773,7 @@
         <v>61</v>
       </c>
       <c r="X200" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
@@ -16799,7 +16826,7 @@
       </c>
       <c r="O201" s="11"/>
       <c r="P201" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q201" s="10" t="b">
         <v>1</v>
@@ -16823,7 +16850,7 @@
         <v>61</v>
       </c>
       <c r="X201" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
@@ -16837,7 +16864,7 @@
     </row>
     <row r="202" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>23</v>
@@ -16849,7 +16876,7 @@
         <v>24</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>28</v>
@@ -16935,7 +16962,7 @@
       </c>
       <c r="O203" s="11"/>
       <c r="P203" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q203" s="10" t="b">
         <v>1</v>
@@ -16959,7 +16986,7 @@
         <v>61</v>
       </c>
       <c r="X203" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
@@ -17012,7 +17039,7 @@
       </c>
       <c r="O204" s="11"/>
       <c r="P204" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q204" s="10" t="b">
         <v>1</v>
@@ -17036,7 +17063,7 @@
         <v>61</v>
       </c>
       <c r="X204" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
@@ -17050,7 +17077,7 @@
     </row>
     <row r="205" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>23</v>
@@ -17062,7 +17089,7 @@
         <v>24</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>28</v>
@@ -17148,7 +17175,7 @@
       </c>
       <c r="O206" s="11"/>
       <c r="P206" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q206" s="10" t="b">
         <v>1</v>
@@ -17225,7 +17252,7 @@
       </c>
       <c r="O207" s="11"/>
       <c r="P207" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q207" s="10" t="b">
         <v>1</v>
@@ -17263,7 +17290,7 @@
     </row>
     <row r="208" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>23</v>
@@ -17275,7 +17302,7 @@
         <v>24</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>28</v>
@@ -17361,7 +17388,7 @@
       </c>
       <c r="O209" s="11"/>
       <c r="P209" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q209" s="10" t="b">
         <v>1</v>
@@ -17438,7 +17465,7 @@
       </c>
       <c r="O210" s="11"/>
       <c r="P210" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q210" s="10" t="b">
         <v>1</v>
@@ -17488,7 +17515,7 @@
         <v>24</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>28</v>
@@ -17600,7 +17627,7 @@
         <v>30</v>
       </c>
       <c r="X212" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
@@ -18461,7 +18488,7 @@
       <c r="AF223" s="4"/>
       <c r="AG223" s="4"/>
     </row>
-    <row r="224" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:33" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
       <c r="B224" s="9" t="s">
         <v>23</v>
@@ -18648,7 +18675,7 @@
         <v>25</v>
       </c>
       <c r="L226" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M226" s="9">
         <v>1</v>
@@ -18725,7 +18752,7 @@
         <v>25</v>
       </c>
       <c r="L227" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M227" s="9">
         <v>1</v>
@@ -18879,7 +18906,7 @@
         <v>25</v>
       </c>
       <c r="L229" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M229" s="9">
         <v>1</v>
@@ -18958,7 +18985,7 @@
         <v>25</v>
       </c>
       <c r="L230" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M230" s="9">
         <v>1</v>
@@ -19016,7 +19043,7 @@
         <v>27</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F231" s="9" t="s">
         <v>28</v>
@@ -19095,7 +19122,7 @@
         <v>27</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F232" s="9" t="s">
         <v>28</v>
@@ -19174,7 +19201,7 @@
         <v>27</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>28</v>
@@ -19253,7 +19280,7 @@
         <v>27</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F234" s="9" t="s">
         <v>28</v>
@@ -19332,7 +19359,7 @@
         <v>27</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F235" s="9" t="s">
         <v>28</v>
@@ -19411,7 +19438,7 @@
         <v>27</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F236" s="9" t="s">
         <v>28</v>
@@ -19490,7 +19517,7 @@
         <v>27</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>28</v>
@@ -19569,7 +19596,7 @@
         <v>27</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>28</v>
@@ -19648,7 +19675,7 @@
         <v>27</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F239" s="9" t="s">
         <v>28</v>
@@ -19727,7 +19754,7 @@
         <v>27</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F240" s="9" t="s">
         <v>28</v>
@@ -19806,7 +19833,7 @@
         <v>27</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>28</v>
@@ -19885,7 +19912,7 @@
         <v>27</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F242" s="9" t="s">
         <v>28</v>
@@ -19964,7 +19991,7 @@
         <v>27</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F243" s="9" t="s">
         <v>28</v>
@@ -20043,7 +20070,7 @@
         <v>27</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F244" s="9" t="s">
         <v>28</v>
@@ -20122,7 +20149,7 @@
         <v>27</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F245" s="9" t="s">
         <v>28</v>
@@ -20201,7 +20228,7 @@
         <v>27</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F246" s="9" t="s">
         <v>28</v>
@@ -20282,7 +20309,7 @@
         <v>24</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F247" s="6" t="s">
         <v>28</v>
@@ -20495,7 +20522,7 @@
         <v>24</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F250" s="6" t="s">
         <v>28</v>
@@ -20704,7 +20731,7 @@
         <v>24</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>28</v>
@@ -20713,7 +20740,7 @@
         <v>26</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I253" s="6" t="s">
         <v>25</v>
@@ -20770,7 +20797,7 @@
         <v>26</v>
       </c>
       <c r="H254" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I254" s="9" t="s">
         <v>25</v>
@@ -20994,7 +21021,7 @@
         <v>24</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F257" s="6" t="s">
         <v>28</v>
@@ -21361,7 +21388,7 @@
         <v>24</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F262" s="6" t="s">
         <v>28</v>
@@ -21712,7 +21739,7 @@
         <v>24</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F267" s="6" t="s">
         <v>28</v>
@@ -22063,7 +22090,7 @@
         <v>24</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F272" s="6" t="s">
         <v>28</v>
@@ -22414,7 +22441,7 @@
         <v>24</v>
       </c>
       <c r="E277" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F277" s="6" t="s">
         <v>28</v>
@@ -22617,7 +22644,7 @@
         <v>27</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F280" s="9" t="s">
         <v>28</v>
@@ -22666,7 +22693,7 @@
         <v>132</v>
       </c>
       <c r="X280" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y280" s="4"/>
       <c r="Z280" s="4"/>
@@ -22690,7 +22717,7 @@
         <v>27</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F281" s="9" t="s">
         <v>28</v>
@@ -22739,7 +22766,7 @@
         <v>132</v>
       </c>
       <c r="X281" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y281" s="4"/>
       <c r="Z281" s="4"/>
@@ -22765,7 +22792,7 @@
         <v>24</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F282" s="6" t="s">
         <v>28</v>
@@ -23051,7 +23078,7 @@
         <v>24</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F286" s="6" t="s">
         <v>28</v>
@@ -23060,7 +23087,7 @@
         <v>26</v>
       </c>
       <c r="H286" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I286" s="6" t="s">
         <v>28</v>
@@ -23117,7 +23144,7 @@
         <v>26</v>
       </c>
       <c r="H287" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I287" s="9" t="s">
         <v>28</v>
@@ -23260,7 +23287,7 @@
         <v>24</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F289" s="6" t="s">
         <v>28</v>
@@ -23269,7 +23296,7 @@
         <v>26</v>
       </c>
       <c r="H289" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I289" s="6" t="s">
         <v>28</v>
@@ -23326,7 +23353,7 @@
         <v>26</v>
       </c>
       <c r="H290" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I290" s="9" t="s">
         <v>28</v>
@@ -23461,7 +23488,7 @@
         <v>24</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F292" s="6" t="s">
         <v>25</v>
@@ -23909,7 +23936,7 @@
         <v>24</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F298" s="6" t="s">
         <v>28</v>
@@ -23918,7 +23945,7 @@
         <v>26</v>
       </c>
       <c r="H298" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I298" s="6" t="s">
         <v>28</v>
@@ -23975,7 +24002,7 @@
         <v>26</v>
       </c>
       <c r="H299" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I299" s="9" t="s">
         <v>28</v>
@@ -24054,7 +24081,7 @@
         <v>26</v>
       </c>
       <c r="H300" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I300" s="9" t="s">
         <v>28</v>
@@ -24066,7 +24093,7 @@
         <v>25</v>
       </c>
       <c r="L300" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M300" s="9">
         <v>1</v>
@@ -24100,7 +24127,7 @@
         <v>30</v>
       </c>
       <c r="X300" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y300" s="4"/>
       <c r="Z300" s="4"/>
@@ -24133,7 +24160,7 @@
         <v>26</v>
       </c>
       <c r="H301" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I301" s="9" t="s">
         <v>28</v>
@@ -24212,7 +24239,7 @@
         <v>26</v>
       </c>
       <c r="H302" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I302" s="9" t="s">
         <v>28</v>
@@ -24258,7 +24285,7 @@
         <v>30</v>
       </c>
       <c r="X302" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y302" s="4"/>
       <c r="Z302" s="4"/>
@@ -24291,7 +24318,7 @@
         <v>26</v>
       </c>
       <c r="H303" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I303" s="9" t="s">
         <v>28</v>
@@ -24370,7 +24397,7 @@
         <v>26</v>
       </c>
       <c r="H304" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I304" s="9" t="s">
         <v>28</v>
@@ -24416,7 +24443,7 @@
         <v>30</v>
       </c>
       <c r="X304" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y304" s="4"/>
       <c r="Z304" s="4"/>
@@ -24449,7 +24476,7 @@
         <v>26</v>
       </c>
       <c r="H305" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I305" s="9" t="s">
         <v>28</v>
@@ -24528,7 +24555,7 @@
         <v>26</v>
       </c>
       <c r="H306" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I306" s="9" t="s">
         <v>28</v>
@@ -24574,7 +24601,7 @@
         <v>30</v>
       </c>
       <c r="X306" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y306" s="4"/>
       <c r="Z306" s="4"/>
@@ -24607,7 +24634,7 @@
         <v>26</v>
       </c>
       <c r="H307" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I307" s="9" t="s">
         <v>28</v>
@@ -24653,7 +24680,7 @@
         <v>30</v>
       </c>
       <c r="X307" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y307" s="4"/>
       <c r="Z307" s="4"/>
@@ -24686,7 +24713,7 @@
         <v>26</v>
       </c>
       <c r="H308" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I308" s="9" t="s">
         <v>28</v>
@@ -24732,7 +24759,7 @@
         <v>30</v>
       </c>
       <c r="X308" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y308" s="4"/>
       <c r="Z308" s="4"/>
@@ -24765,7 +24792,7 @@
         <v>26</v>
       </c>
       <c r="H309" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I309" s="9" t="s">
         <v>28</v>
@@ -24811,7 +24838,7 @@
         <v>30</v>
       </c>
       <c r="X309" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Y309" s="4"/>
       <c r="Z309" s="4"/>
@@ -24844,7 +24871,7 @@
         <v>26</v>
       </c>
       <c r="H310" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I310" s="9" t="s">
         <v>28</v>
@@ -24890,7 +24917,7 @@
         <v>30</v>
       </c>
       <c r="X310" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y310" s="4"/>
       <c r="Z310" s="4"/>
@@ -24923,7 +24950,7 @@
         <v>26</v>
       </c>
       <c r="H311" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I311" s="9" t="s">
         <v>28</v>
@@ -24969,7 +24996,7 @@
         <v>30</v>
       </c>
       <c r="X311" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y311" s="4"/>
       <c r="Z311" s="4"/>
@@ -25002,7 +25029,7 @@
         <v>26</v>
       </c>
       <c r="H312" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I312" s="9" t="s">
         <v>28</v>
@@ -25048,7 +25075,7 @@
         <v>30</v>
       </c>
       <c r="X312" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y312" s="4"/>
       <c r="Z312" s="4"/>
@@ -25081,7 +25108,7 @@
         <v>26</v>
       </c>
       <c r="H313" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I313" s="9" t="s">
         <v>28</v>
@@ -25127,7 +25154,7 @@
         <v>30</v>
       </c>
       <c r="X313" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y313" s="4"/>
       <c r="Z313" s="4"/>
@@ -25160,7 +25187,7 @@
         <v>26</v>
       </c>
       <c r="H314" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I314" s="9" t="s">
         <v>28</v>
@@ -25206,7 +25233,7 @@
         <v>30</v>
       </c>
       <c r="X314" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y314" s="4"/>
       <c r="Z314" s="4"/>
@@ -25239,7 +25266,7 @@
         <v>26</v>
       </c>
       <c r="H315" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I315" s="9" t="s">
         <v>28</v>
@@ -25285,7 +25312,7 @@
         <v>30</v>
       </c>
       <c r="X315" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y315" s="4"/>
       <c r="Z315" s="4"/>
@@ -25318,7 +25345,7 @@
         <v>26</v>
       </c>
       <c r="H316" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I316" s="9" t="s">
         <v>28</v>
@@ -25364,7 +25391,7 @@
         <v>30</v>
       </c>
       <c r="X316" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y316" s="4"/>
       <c r="Z316" s="4"/>
@@ -25397,7 +25424,7 @@
         <v>26</v>
       </c>
       <c r="H317" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I317" s="9" t="s">
         <v>28</v>
@@ -25443,7 +25470,7 @@
         <v>30</v>
       </c>
       <c r="X317" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y317" s="4"/>
       <c r="Z317" s="4"/>
@@ -25476,7 +25503,7 @@
         <v>26</v>
       </c>
       <c r="H318" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I318" s="9" t="s">
         <v>28</v>
@@ -25522,7 +25549,7 @@
         <v>30</v>
       </c>
       <c r="X318" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y318" s="4"/>
       <c r="Z318" s="4"/>
@@ -25555,7 +25582,7 @@
         <v>26</v>
       </c>
       <c r="H319" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I319" s="9" t="s">
         <v>28</v>
@@ -25601,7 +25628,7 @@
         <v>30</v>
       </c>
       <c r="X319" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y319" s="4"/>
       <c r="Z319" s="4"/>
@@ -25613,7 +25640,7 @@
       <c r="AF319" s="4"/>
       <c r="AG319" s="4"/>
     </row>
-    <row r="320" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:33" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="8"/>
       <c r="B320" s="9" t="s">
         <v>23</v>
@@ -25634,7 +25661,7 @@
         <v>26</v>
       </c>
       <c r="H320" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I320" s="9" t="s">
         <v>28</v>
@@ -25680,7 +25707,7 @@
         <v>30</v>
       </c>
       <c r="X320" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Y320" s="4"/>
       <c r="Z320" s="4"/>
@@ -25713,7 +25740,7 @@
         <v>26</v>
       </c>
       <c r="H321" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I321" s="9" t="s">
         <v>28</v>
@@ -25759,7 +25786,7 @@
         <v>30</v>
       </c>
       <c r="X321" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Y321" s="4"/>
       <c r="Z321" s="4"/>
@@ -25792,7 +25819,7 @@
         <v>26</v>
       </c>
       <c r="H322" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I322" s="9" t="s">
         <v>28</v>
@@ -25838,7 +25865,7 @@
         <v>30</v>
       </c>
       <c r="X322" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y322" s="4"/>
       <c r="Z322" s="4"/>
@@ -25871,7 +25898,7 @@
         <v>26</v>
       </c>
       <c r="H323" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I323" s="9" t="s">
         <v>28</v>
@@ -25917,7 +25944,7 @@
         <v>30</v>
       </c>
       <c r="X323" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Y323" s="4"/>
       <c r="Z323" s="4"/>
@@ -25943,7 +25970,7 @@
         <v>24</v>
       </c>
       <c r="E324" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F324" s="6" t="s">
         <v>28</v>
@@ -26053,7 +26080,7 @@
         <v>37</v>
       </c>
       <c r="X325" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Y325" s="4"/>
       <c r="Z325" s="4"/>
@@ -26130,7 +26157,7 @@
         <v>37</v>
       </c>
       <c r="X326" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Y326" s="4"/>
       <c r="Z326" s="4"/>
@@ -26207,7 +26234,7 @@
         <v>37</v>
       </c>
       <c r="X327" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Y327" s="4"/>
       <c r="Z327" s="4"/>
@@ -26284,7 +26311,7 @@
         <v>37</v>
       </c>
       <c r="X328" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y328" s="4"/>
       <c r="Z328" s="4"/>
@@ -26310,7 +26337,7 @@
         <v>24</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F329" s="6" t="s">
         <v>28</v>
@@ -26420,7 +26447,7 @@
         <v>37</v>
       </c>
       <c r="X330" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y330" s="4"/>
       <c r="Z330" s="4"/>
@@ -26497,7 +26524,7 @@
         <v>37</v>
       </c>
       <c r="X331" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Y331" s="4"/>
       <c r="Z331" s="4"/>
@@ -26574,7 +26601,7 @@
         <v>37</v>
       </c>
       <c r="X332" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Y332" s="4"/>
       <c r="Z332" s="4"/>
@@ -26651,7 +26678,7 @@
         <v>37</v>
       </c>
       <c r="X333" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Y333" s="4"/>
       <c r="Z333" s="4"/>
@@ -26677,7 +26704,7 @@
         <v>24</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F334" s="6" t="s">
         <v>28</v>
@@ -26787,7 +26814,7 @@
         <v>37</v>
       </c>
       <c r="X335" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Y335" s="4"/>
       <c r="Z335" s="4"/>
@@ -26864,7 +26891,7 @@
         <v>37</v>
       </c>
       <c r="X336" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Y336" s="4"/>
       <c r="Z336" s="4"/>
@@ -26941,7 +26968,7 @@
         <v>37</v>
       </c>
       <c r="X337" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Y337" s="4"/>
       <c r="Z337" s="4"/>
@@ -27018,7 +27045,7 @@
         <v>37</v>
       </c>
       <c r="X338" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Y338" s="4"/>
       <c r="Z338" s="4"/>
@@ -27044,7 +27071,7 @@
         <v>24</v>
       </c>
       <c r="E339" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F339" s="6" t="s">
         <v>28</v>
@@ -27154,7 +27181,7 @@
         <v>37</v>
       </c>
       <c r="X340" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Y340" s="4"/>
       <c r="Z340" s="4"/>
@@ -27231,7 +27258,7 @@
         <v>37</v>
       </c>
       <c r="X341" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y341" s="4"/>
       <c r="Z341" s="4"/>
@@ -27255,7 +27282,7 @@
         <v>27</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F342" s="9" t="s">
         <v>28</v>
@@ -27308,7 +27335,7 @@
         <v>37</v>
       </c>
       <c r="X342" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y342" s="4"/>
       <c r="Z342" s="4"/>
@@ -27332,7 +27359,7 @@
         <v>27</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F343" s="9" t="s">
         <v>28</v>
@@ -27385,7 +27412,7 @@
         <v>37</v>
       </c>
       <c r="X343" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Y343" s="4"/>
       <c r="Z343" s="4"/>
@@ -27399,7 +27426,7 @@
     </row>
     <row r="344" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>23</v>
@@ -27497,7 +27524,7 @@
       </c>
       <c r="O345" s="11"/>
       <c r="P345" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q345" s="10" t="b">
         <v>1</v>
@@ -27572,7 +27599,7 @@
       </c>
       <c r="O346" s="11"/>
       <c r="P346" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q346" s="10" t="b">
         <v>1</v>
@@ -27647,7 +27674,7 @@
       </c>
       <c r="O347" s="11"/>
       <c r="P347" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q347" s="10" t="b">
         <v>1</v>
@@ -27693,7 +27720,7 @@
         <v>27</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F348" s="9" t="s">
         <v>25</v>
@@ -27722,7 +27749,7 @@
       </c>
       <c r="O348" s="11"/>
       <c r="P348" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q348" s="10" t="b">
         <v>1</v>
@@ -27797,7 +27824,7 @@
       </c>
       <c r="O349" s="11"/>
       <c r="P349" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q349" s="10" t="b">
         <v>1</v>
@@ -27872,7 +27899,7 @@
       </c>
       <c r="O350" s="11"/>
       <c r="P350" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q350" s="10" t="b">
         <v>1</v>
@@ -27918,7 +27945,7 @@
         <v>27</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>270</v>
+        <v>473</v>
       </c>
       <c r="F351" s="9" t="s">
         <v>28</v>
@@ -27927,7 +27954,7 @@
         <v>28</v>
       </c>
       <c r="H351" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I351" s="9" t="s">
         <v>26</v>
@@ -27947,7 +27974,7 @@
       </c>
       <c r="O351" s="11"/>
       <c r="P351" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q351" s="10" t="b">
         <v>1</v>
@@ -27993,7 +28020,7 @@
         <v>27</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F352" s="9" t="s">
         <v>28</v>
@@ -28022,7 +28049,7 @@
       </c>
       <c r="O352" s="11"/>
       <c r="P352" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q352" s="10" t="b">
         <v>1</v>
@@ -28068,7 +28095,7 @@
         <v>27</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F353" s="9" t="s">
         <v>28</v>
@@ -28097,7 +28124,7 @@
       </c>
       <c r="O353" s="11"/>
       <c r="P353" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q353" s="10" t="b">
         <v>1</v>
@@ -28143,7 +28170,7 @@
         <v>27</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F354" s="9" t="s">
         <v>25</v>
@@ -28172,7 +28199,7 @@
       </c>
       <c r="O354" s="11"/>
       <c r="P354" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q354" s="10" t="b">
         <v>1</v>
@@ -28207,54 +28234,66 @@
       <c r="AG354" s="4"/>
     </row>
     <row r="355" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="B355" s="19" t="s">
+      <c r="A355" s="8"/>
+      <c r="B355" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C355" s="19">
+      <c r="C355" s="9">
         <v>100</v>
       </c>
-      <c r="D355" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E355" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F355" s="6" t="s">
+      <c r="D355" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E355" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F355" s="11"/>
+      <c r="G355" s="11"/>
+      <c r="H355" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G355" s="6" t="s">
+      <c r="I355" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J355" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K355" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H355" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I355" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J355" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K355" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L355" s="16"/>
-      <c r="M355" s="16"/>
-      <c r="N355" s="16"/>
-      <c r="O355" s="19">
-        <v>8</v>
-      </c>
-      <c r="P355" s="16"/>
-      <c r="Q355" s="16"/>
-      <c r="R355" s="16"/>
-      <c r="S355" s="16"/>
-      <c r="T355" s="16"/>
-      <c r="U355" s="16"/>
-      <c r="V355" s="16"/>
-      <c r="W355" s="16"/>
-      <c r="X355" s="16"/>
+      <c r="L355" s="11"/>
+      <c r="M355" s="9">
+        <v>1</v>
+      </c>
+      <c r="N355" s="9">
+        <v>10</v>
+      </c>
+      <c r="O355" s="11"/>
+      <c r="P355" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q355" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R355" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S355" s="9">
+        <v>0</v>
+      </c>
+      <c r="T355" s="9">
+        <v>1</v>
+      </c>
+      <c r="U355" s="9">
+        <v>1</v>
+      </c>
+      <c r="V355" s="9">
+        <v>0</v>
+      </c>
+      <c r="W355" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X355" s="11"/>
       <c r="Y355" s="4"/>
       <c r="Z355" s="4"/>
       <c r="AA355" s="4"/>
@@ -28265,7 +28304,7 @@
       <c r="AF355" s="4"/>
       <c r="AG355" s="4"/>
     </row>
-    <row r="356" spans="1:33" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="8"/>
       <c r="B356" s="9" t="s">
         <v>23</v>
@@ -28277,38 +28316,30 @@
         <v>27</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="F356" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="G356" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H356" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="I356" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J356" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="J356" s="11"/>
       <c r="K356" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L356" s="11" t="s">
-        <v>387</v>
-      </c>
+      <c r="L356" s="11"/>
       <c r="M356" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N356" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O356" s="11"/>
       <c r="P356" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q356" s="10" t="b">
         <v>1</v>
@@ -28320,7 +28351,7 @@
         <v>0</v>
       </c>
       <c r="T356" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U356" s="9">
         <v>1</v>
@@ -28354,38 +28385,30 @@
         <v>27</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F357" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F357" s="11"/>
+      <c r="G357" s="11"/>
+      <c r="H357" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="G357" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H357" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="I357" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J357" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="J357" s="11"/>
       <c r="K357" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L357" s="11" t="s">
-        <v>235</v>
-      </c>
+      <c r="L357" s="11"/>
       <c r="M357" s="9">
         <v>1</v>
       </c>
       <c r="N357" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O357" s="11"/>
       <c r="P357" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q357" s="10" t="b">
         <v>1</v>
@@ -28420,72 +28443,54 @@
       <c r="AG357" s="4"/>
     </row>
     <row r="358" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="8"/>
-      <c r="B358" s="9" t="s">
+      <c r="A358" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B358" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C358" s="9">
+      <c r="C358" s="19">
         <v>100</v>
       </c>
-      <c r="D358" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E358" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="F358" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G358" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H358" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I358" s="9" t="s">
+      <c r="D358" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E358" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F358" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G358" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H358" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I358" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J358" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K358" s="9" t="s">
+      <c r="J358" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K358" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L358" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="M358" s="9">
-        <v>1</v>
-      </c>
-      <c r="N358" s="9">
-        <v>5</v>
-      </c>
-      <c r="O358" s="11"/>
-      <c r="P358" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q358" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R358" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S358" s="9">
-        <v>0</v>
-      </c>
-      <c r="T358" s="9">
-        <v>1</v>
-      </c>
-      <c r="U358" s="9">
-        <v>1</v>
-      </c>
-      <c r="V358" s="9">
-        <v>0</v>
-      </c>
-      <c r="W358" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X358" s="11"/>
+      <c r="L358" s="16"/>
+      <c r="M358" s="16"/>
+      <c r="N358" s="16"/>
+      <c r="O358" s="19">
+        <v>8</v>
+      </c>
+      <c r="P358" s="16"/>
+      <c r="Q358" s="16"/>
+      <c r="R358" s="16"/>
+      <c r="S358" s="16"/>
+      <c r="T358" s="16"/>
+      <c r="U358" s="16"/>
+      <c r="V358" s="16"/>
+      <c r="W358" s="16"/>
+      <c r="X358" s="16"/>
       <c r="Y358" s="4"/>
       <c r="Z358" s="4"/>
       <c r="AA358" s="4"/>
@@ -28496,7 +28501,7 @@
       <c r="AF358" s="4"/>
       <c r="AG358" s="4"/>
     </row>
-    <row r="359" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:33" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="8"/>
       <c r="B359" s="9" t="s">
         <v>23</v>
@@ -28508,16 +28513,16 @@
         <v>27</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F359" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G359" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H359" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I359" s="9" t="s">
         <v>26</v>
@@ -28529,17 +28534,17 @@
         <v>25</v>
       </c>
       <c r="L359" s="11" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M359" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N359" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O359" s="11"/>
       <c r="P359" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q359" s="10" t="b">
         <v>1</v>
@@ -28551,7 +28556,7 @@
         <v>0</v>
       </c>
       <c r="T359" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U359" s="9">
         <v>1</v>
@@ -28585,13 +28590,13 @@
         <v>27</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="F360" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G360" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H360" s="9" t="s">
         <v>28</v>
@@ -28605,16 +28610,18 @@
       <c r="K360" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L360" s="11"/>
+      <c r="L360" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="M360" s="9">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N360" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O360" s="11"/>
       <c r="P360" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q360" s="10" t="b">
         <v>1</v>
@@ -28626,7 +28633,7 @@
         <v>0</v>
       </c>
       <c r="T360" s="9">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="U360" s="9">
         <v>1</v>
@@ -28635,7 +28642,7 @@
         <v>0</v>
       </c>
       <c r="W360" s="9" t="s">
-        <v>392</v>
+        <v>30</v>
       </c>
       <c r="X360" s="11"/>
       <c r="Y360" s="4"/>
@@ -28649,7 +28656,7 @@
       <c r="AG360" s="4"/>
     </row>
     <row r="361" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="20"/>
+      <c r="A361" s="8"/>
       <c r="B361" s="9" t="s">
         <v>23</v>
       </c>
@@ -28659,17 +28666,17 @@
       <c r="D361" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E361" s="20" t="s">
-        <v>262</v>
+      <c r="E361" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="F361" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G361" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H361" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="G361" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H361" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="I361" s="9" t="s">
         <v>26</v>
@@ -28680,18 +28687,18 @@
       <c r="K361" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L361" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="M361" s="21">
-        <v>1</v>
-      </c>
-      <c r="N361" s="21">
-        <v>40</v>
-      </c>
-      <c r="O361" s="20"/>
+      <c r="L361" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M361" s="9">
+        <v>1</v>
+      </c>
+      <c r="N361" s="9">
+        <v>5</v>
+      </c>
+      <c r="O361" s="11"/>
       <c r="P361" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q361" s="10" t="b">
         <v>1</v>
@@ -28714,7 +28721,7 @@
       <c r="W361" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="X361" s="4"/>
+      <c r="X361" s="11"/>
       <c r="Y361" s="4"/>
       <c r="Z361" s="4"/>
       <c r="AA361" s="4"/>
@@ -28726,54 +28733,72 @@
       <c r="AG361" s="4"/>
     </row>
     <row r="362" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="B362" s="19" t="s">
+      <c r="A362" s="8"/>
+      <c r="B362" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C362" s="19">
+      <c r="C362" s="9">
         <v>100</v>
       </c>
-      <c r="D362" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E362" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F362" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G362" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H362" s="6" t="s">
+      <c r="D362" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E362" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F362" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G362" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H362" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I362" s="6" t="s">
+      <c r="I362" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J362" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K362" s="6" t="s">
+      <c r="J362" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K362" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L362" s="16"/>
-      <c r="M362" s="16"/>
-      <c r="N362" s="16"/>
-      <c r="O362" s="19">
-        <v>8</v>
-      </c>
-      <c r="P362" s="16"/>
-      <c r="Q362" s="16"/>
-      <c r="R362" s="16"/>
-      <c r="S362" s="16"/>
-      <c r="T362" s="16"/>
-      <c r="U362" s="16"/>
-      <c r="V362" s="16"/>
-      <c r="W362" s="16"/>
-      <c r="X362" s="16"/>
+      <c r="L362" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="M362" s="9">
+        <v>1</v>
+      </c>
+      <c r="N362" s="9">
+        <v>6</v>
+      </c>
+      <c r="O362" s="11"/>
+      <c r="P362" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q362" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R362" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S362" s="9">
+        <v>0</v>
+      </c>
+      <c r="T362" s="9">
+        <v>1</v>
+      </c>
+      <c r="U362" s="9">
+        <v>1</v>
+      </c>
+      <c r="V362" s="9">
+        <v>0</v>
+      </c>
+      <c r="W362" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X362" s="11"/>
       <c r="Y362" s="4"/>
       <c r="Z362" s="4"/>
       <c r="AA362" s="4"/>
@@ -28796,7 +28821,7 @@
         <v>27</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F363" s="9" t="s">
         <v>28</v>
@@ -28818,14 +28843,14 @@
       </c>
       <c r="L363" s="11"/>
       <c r="M363" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N363" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O363" s="11"/>
       <c r="P363" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="Q363" s="10" t="b">
         <v>1</v>
@@ -28836,17 +28861,17 @@
       <c r="S363" s="9">
         <v>0</v>
       </c>
-      <c r="T363" s="22">
-        <v>4294967295</v>
+      <c r="T363" s="9">
+        <v>200</v>
       </c>
       <c r="U363" s="9">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V363" s="9">
         <v>0</v>
       </c>
       <c r="W363" s="9" t="s">
-        <v>275</v>
+        <v>391</v>
       </c>
       <c r="X363" s="11"/>
       <c r="Y363" s="4"/>
@@ -28860,7 +28885,7 @@
       <c r="AG363" s="4"/>
     </row>
     <row r="364" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="8"/>
+      <c r="A364" s="20"/>
       <c r="B364" s="9" t="s">
         <v>23</v>
       </c>
@@ -28871,7 +28896,7 @@
         <v>27</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>276</v>
+        <v>482</v>
       </c>
       <c r="F364" s="9" t="s">
         <v>28</v>
@@ -28891,16 +28916,16 @@
       <c r="K364" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L364" s="11"/>
-      <c r="M364" s="9">
-        <v>32</v>
-      </c>
-      <c r="N364" s="9">
-        <v>32</v>
-      </c>
-      <c r="O364" s="11"/>
+      <c r="L364" s="4"/>
+      <c r="M364" s="21">
+        <v>8</v>
+      </c>
+      <c r="N364" s="21">
+        <v>24</v>
+      </c>
+      <c r="O364" s="20"/>
       <c r="P364" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="Q364" s="10" t="b">
         <v>1</v>
@@ -28911,19 +28936,17 @@
       <c r="S364" s="9">
         <v>0</v>
       </c>
-      <c r="T364" s="22">
-        <v>4294967295</v>
-      </c>
+      <c r="T364" s="11"/>
       <c r="U364" s="9">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V364" s="9">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W364" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="X364" s="11"/>
+        <v>477</v>
+      </c>
+      <c r="X364" s="4"/>
       <c r="Y364" s="4"/>
       <c r="Z364" s="4"/>
       <c r="AA364" s="4"/>
@@ -28935,54 +28958,72 @@
       <c r="AG364" s="4"/>
     </row>
     <row r="365" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B365" s="6" t="s">
+      <c r="A365" s="20"/>
+      <c r="B365" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C365" s="6">
+      <c r="C365" s="9">
         <v>100</v>
       </c>
-      <c r="D365" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E365" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F365" s="6" t="s">
+      <c r="D365" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E365" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F365" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G365" s="6" t="s">
+      <c r="G365" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H365" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I365" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J365" s="6" t="s">
+      <c r="H365" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I365" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K365" s="6" t="s">
+      <c r="J365" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K365" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L365" s="7"/>
-      <c r="M365" s="7"/>
-      <c r="N365" s="7"/>
-      <c r="O365" s="6">
-        <v>8</v>
-      </c>
-      <c r="P365" s="7"/>
-      <c r="Q365" s="7"/>
-      <c r="R365" s="7"/>
-      <c r="S365" s="7"/>
-      <c r="T365" s="7"/>
-      <c r="U365" s="7"/>
-      <c r="V365" s="7"/>
-      <c r="W365" s="7"/>
-      <c r="X365" s="7"/>
+      <c r="L365" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="M365" s="21">
+        <v>1</v>
+      </c>
+      <c r="N365" s="21">
+        <v>32</v>
+      </c>
+      <c r="O365" s="20"/>
+      <c r="P365" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q365" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R365" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S365" s="9">
+        <v>0</v>
+      </c>
+      <c r="T365" s="9">
+        <v>1</v>
+      </c>
+      <c r="U365" s="9">
+        <v>1</v>
+      </c>
+      <c r="V365" s="9">
+        <v>0</v>
+      </c>
+      <c r="W365" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X365" s="4"/>
       <c r="Y365" s="4"/>
       <c r="Z365" s="4"/>
       <c r="AA365" s="4"/>
@@ -28994,70 +29035,54 @@
       <c r="AG365" s="4"/>
     </row>
     <row r="366" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="8"/>
-      <c r="B366" s="9" t="s">
+      <c r="A366" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B366" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C366" s="9">
+      <c r="C366" s="19">
         <v>100</v>
       </c>
-      <c r="D366" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E366" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="F366" s="9" t="s">
+      <c r="D366" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E366" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G366" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H366" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G366" s="9" t="s">
+      <c r="I366" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J366" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K366" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H366" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I366" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J366" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K366" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L366" s="11"/>
-      <c r="M366" s="9">
-        <v>16</v>
-      </c>
-      <c r="N366" s="9">
-        <v>0</v>
-      </c>
-      <c r="O366" s="11"/>
-      <c r="P366" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q366" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R366" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S366" s="9">
-        <v>0</v>
-      </c>
-      <c r="T366" s="9">
-        <v>60</v>
-      </c>
-      <c r="U366" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="V366" s="9">
-        <v>0</v>
-      </c>
-      <c r="W366" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="X366" s="11"/>
+      <c r="L366" s="16"/>
+      <c r="M366" s="16"/>
+      <c r="N366" s="16"/>
+      <c r="O366" s="19">
+        <v>8</v>
+      </c>
+      <c r="P366" s="16"/>
+      <c r="Q366" s="16"/>
+      <c r="R366" s="16"/>
+      <c r="S366" s="16"/>
+      <c r="T366" s="16"/>
+      <c r="U366" s="16"/>
+      <c r="V366" s="16"/>
+      <c r="W366" s="16"/>
+      <c r="X366" s="16"/>
       <c r="Y366" s="4"/>
       <c r="Z366" s="4"/>
       <c r="AA366" s="4"/>
@@ -29080,36 +29105,36 @@
         <v>27</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>398</v>
+        <v>272</v>
       </c>
       <c r="F367" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G367" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H367" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G367" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H367" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="I367" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J367" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K367" s="9" t="s">
         <v>25</v>
       </c>
       <c r="L367" s="11"/>
       <c r="M367" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N367" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O367" s="11"/>
       <c r="P367" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q367" s="10" t="b">
         <v>1</v>
@@ -29120,8 +29145,8 @@
       <c r="S367" s="9">
         <v>0</v>
       </c>
-      <c r="T367" s="9">
-        <v>20</v>
+      <c r="T367" s="22">
+        <v>4294967295</v>
       </c>
       <c r="U367" s="9">
         <v>0.1</v>
@@ -29130,7 +29155,7 @@
         <v>0</v>
       </c>
       <c r="W367" s="9" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="X367" s="11"/>
       <c r="Y367" s="4"/>
@@ -29155,38 +29180,36 @@
         <v>27</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>399</v>
+        <v>275</v>
       </c>
       <c r="F368" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G368" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H368" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G368" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H368" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="I368" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J368" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K368" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L368" s="11" t="s">
-        <v>400</v>
-      </c>
+      <c r="L368" s="11"/>
       <c r="M368" s="9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N368" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="O368" s="11"/>
       <c r="P368" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q368" s="10" t="b">
         <v>1</v>
@@ -29197,17 +29220,17 @@
       <c r="S368" s="9">
         <v>0</v>
       </c>
-      <c r="T368" s="9">
-        <v>1</v>
+      <c r="T368" s="22">
+        <v>4294967295</v>
       </c>
       <c r="U368" s="9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V368" s="9">
         <v>0</v>
       </c>
       <c r="W368" s="9" t="s">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="X368" s="11"/>
       <c r="Y368" s="4"/>
@@ -29221,72 +29244,54 @@
       <c r="AG368" s="4"/>
     </row>
     <row r="369" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="8"/>
-      <c r="B369" s="9" t="s">
+      <c r="A369" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="B369" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C369" s="9">
+      <c r="C369" s="19">
         <v>100</v>
       </c>
-      <c r="D369" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E369" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="F369" s="9" t="s">
+      <c r="D369" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E369" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F369" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G369" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H369" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G369" s="9" t="s">
+      <c r="I369" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J369" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K369" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H369" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I369" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J369" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K369" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L369" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="M369" s="9">
-        <v>1</v>
-      </c>
-      <c r="N369" s="9">
-        <v>49</v>
-      </c>
-      <c r="O369" s="11"/>
-      <c r="P369" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q369" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R369" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S369" s="9">
-        <v>0</v>
-      </c>
-      <c r="T369" s="9">
-        <v>1</v>
-      </c>
-      <c r="U369" s="9">
-        <v>1</v>
-      </c>
-      <c r="V369" s="9">
-        <v>0</v>
-      </c>
-      <c r="W369" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X369" s="11"/>
+      <c r="L369" s="16"/>
+      <c r="M369" s="16"/>
+      <c r="N369" s="16"/>
+      <c r="O369" s="19">
+        <v>8</v>
+      </c>
+      <c r="P369" s="16"/>
+      <c r="Q369" s="16"/>
+      <c r="R369" s="16"/>
+      <c r="S369" s="16"/>
+      <c r="T369" s="16"/>
+      <c r="U369" s="16"/>
+      <c r="V369" s="16"/>
+      <c r="W369" s="16"/>
+      <c r="X369" s="16"/>
       <c r="Y369" s="4"/>
       <c r="Z369" s="4"/>
       <c r="AA369" s="4"/>
@@ -29309,59 +29314,57 @@
         <v>27</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>403</v>
+        <v>480</v>
       </c>
       <c r="F370" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G370" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H370" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G370" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H370" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="I370" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J370" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K370" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L370" s="11" t="s">
-        <v>404</v>
-      </c>
+      <c r="L370" s="11"/>
       <c r="M370" s="9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N370" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O370" s="11"/>
       <c r="P370" s="9" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="Q370" s="10" t="b">
         <v>1</v>
       </c>
       <c r="R370" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S370" s="9">
         <v>0</v>
       </c>
-      <c r="T370" s="9">
-        <v>1</v>
+      <c r="T370" s="22">
+        <v>4294967295</v>
       </c>
       <c r="U370" s="9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V370" s="9">
         <v>0</v>
       </c>
       <c r="W370" s="9" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="X370" s="11"/>
       <c r="Y370" s="4"/>
@@ -29386,59 +29389,57 @@
         <v>27</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="F371" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G371" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H371" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G371" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H371" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="I371" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J371" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K371" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L371" s="11" t="s">
-        <v>406</v>
-      </c>
+      <c r="L371" s="11"/>
       <c r="M371" s="9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N371" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="O371" s="11"/>
       <c r="P371" s="9" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="Q371" s="10" t="b">
         <v>1</v>
       </c>
       <c r="R371" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S371" s="9">
         <v>0</v>
       </c>
-      <c r="T371" s="9">
-        <v>1</v>
+      <c r="T371" s="22">
+        <v>4294967295</v>
       </c>
       <c r="U371" s="9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V371" s="9">
         <v>0</v>
       </c>
       <c r="W371" s="9" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="X371" s="11"/>
       <c r="Y371" s="4"/>
@@ -29452,72 +29453,54 @@
       <c r="AG371" s="4"/>
     </row>
     <row r="372" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="8"/>
-      <c r="B372" s="9" t="s">
+      <c r="A372" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B372" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C372" s="9">
+      <c r="C372" s="6">
         <v>100</v>
       </c>
-      <c r="D372" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E372" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="F372" s="9" t="s">
+      <c r="D372" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E372" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F372" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G372" s="9" t="s">
+      <c r="G372" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H372" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I372" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J372" s="9" t="s">
+      <c r="H372" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I372" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J372" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K372" s="9" t="s">
+      <c r="K372" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L372" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="M372" s="9">
-        <v>1</v>
-      </c>
-      <c r="N372" s="9">
-        <v>52</v>
-      </c>
-      <c r="O372" s="11"/>
-      <c r="P372" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q372" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R372" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S372" s="9">
-        <v>0</v>
-      </c>
-      <c r="T372" s="9">
-        <v>1</v>
-      </c>
-      <c r="U372" s="9">
-        <v>1</v>
-      </c>
-      <c r="V372" s="9">
-        <v>0</v>
-      </c>
-      <c r="W372" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X372" s="11"/>
+      <c r="L372" s="7"/>
+      <c r="M372" s="7"/>
+      <c r="N372" s="7"/>
+      <c r="O372" s="6">
+        <v>8</v>
+      </c>
+      <c r="P372" s="7"/>
+      <c r="Q372" s="7"/>
+      <c r="R372" s="7"/>
+      <c r="S372" s="7"/>
+      <c r="T372" s="7"/>
+      <c r="U372" s="7"/>
+      <c r="V372" s="7"/>
+      <c r="W372" s="7"/>
+      <c r="X372" s="7"/>
       <c r="Y372" s="4"/>
       <c r="Z372" s="4"/>
       <c r="AA372" s="4"/>
@@ -29540,7 +29523,7 @@
         <v>27</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F373" s="9" t="s">
         <v>25</v>
@@ -29560,18 +29543,16 @@
       <c r="K373" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L373" s="11" t="s">
-        <v>410</v>
-      </c>
+      <c r="L373" s="11"/>
       <c r="M373" s="9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N373" s="9">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="O373" s="11"/>
       <c r="P373" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q373" s="10" t="b">
         <v>1</v>
@@ -29583,16 +29564,16 @@
         <v>0</v>
       </c>
       <c r="T373" s="9">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="U373" s="9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V373" s="9">
         <v>0</v>
       </c>
       <c r="W373" s="9" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="X373" s="11"/>
       <c r="Y373" s="4"/>
@@ -29606,30 +29587,70 @@
       <c r="AG373" s="4"/>
     </row>
     <row r="374" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="4"/>
-      <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
-      <c r="D374" s="4"/>
-      <c r="E374" s="4"/>
-      <c r="F374" s="4"/>
-      <c r="G374" s="4"/>
-      <c r="H374" s="4"/>
-      <c r="I374" s="4"/>
-      <c r="J374" s="4"/>
-      <c r="K374" s="4"/>
-      <c r="L374" s="4"/>
-      <c r="M374" s="4"/>
-      <c r="N374" s="4"/>
-      <c r="O374" s="4"/>
-      <c r="P374" s="4"/>
-      <c r="Q374" s="4"/>
-      <c r="R374" s="4"/>
-      <c r="S374" s="4"/>
-      <c r="T374" s="4"/>
-      <c r="U374" s="4"/>
-      <c r="V374" s="4"/>
-      <c r="W374" s="4"/>
-      <c r="X374" s="4"/>
+      <c r="A374" s="8"/>
+      <c r="B374" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C374" s="9">
+        <v>100</v>
+      </c>
+      <c r="D374" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E374" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F374" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G374" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H374" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I374" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J374" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K374" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L374" s="11"/>
+      <c r="M374" s="9">
+        <v>32</v>
+      </c>
+      <c r="N374" s="9">
+        <v>16</v>
+      </c>
+      <c r="O374" s="11"/>
+      <c r="P374" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q374" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R374" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S374" s="9">
+        <v>0</v>
+      </c>
+      <c r="T374" s="9">
+        <v>20</v>
+      </c>
+      <c r="U374" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="V374" s="9">
+        <v>0</v>
+      </c>
+      <c r="W374" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X374" s="11"/>
       <c r="Y374" s="4"/>
       <c r="Z374" s="4"/>
       <c r="AA374" s="4"/>
@@ -29641,30 +29662,72 @@
       <c r="AG374" s="4"/>
     </row>
     <row r="375" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="4"/>
-      <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
-      <c r="E375" s="4"/>
-      <c r="F375" s="4"/>
-      <c r="G375" s="4"/>
-      <c r="H375" s="4"/>
-      <c r="I375" s="4"/>
-      <c r="J375" s="4"/>
-      <c r="K375" s="4"/>
-      <c r="L375" s="4"/>
-      <c r="M375" s="4"/>
-      <c r="N375" s="4"/>
-      <c r="O375" s="4"/>
-      <c r="P375" s="4"/>
-      <c r="Q375" s="4"/>
-      <c r="R375" s="4"/>
-      <c r="S375" s="4"/>
-      <c r="T375" s="4"/>
-      <c r="U375" s="4"/>
-      <c r="V375" s="4"/>
-      <c r="W375" s="4"/>
-      <c r="X375" s="4"/>
+      <c r="A375" s="8"/>
+      <c r="B375" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C375" s="9">
+        <v>100</v>
+      </c>
+      <c r="D375" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E375" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F375" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G375" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H375" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I375" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J375" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K375" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L375" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="M375" s="9">
+        <v>1</v>
+      </c>
+      <c r="N375" s="9">
+        <v>48</v>
+      </c>
+      <c r="O375" s="11"/>
+      <c r="P375" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q375" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R375" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S375" s="9">
+        <v>0</v>
+      </c>
+      <c r="T375" s="9">
+        <v>1</v>
+      </c>
+      <c r="U375" s="9">
+        <v>1</v>
+      </c>
+      <c r="V375" s="9">
+        <v>0</v>
+      </c>
+      <c r="W375" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X375" s="11"/>
       <c r="Y375" s="4"/>
       <c r="Z375" s="4"/>
       <c r="AA375" s="4"/>
@@ -29676,30 +29739,72 @@
       <c r="AG375" s="4"/>
     </row>
     <row r="376" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="4"/>
-      <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
-      <c r="D376" s="4"/>
-      <c r="E376" s="4"/>
-      <c r="F376" s="4"/>
-      <c r="G376" s="4"/>
-      <c r="H376" s="4"/>
-      <c r="I376" s="4"/>
-      <c r="J376" s="4"/>
-      <c r="K376" s="4"/>
-      <c r="L376" s="4"/>
-      <c r="M376" s="4"/>
-      <c r="N376" s="4"/>
-      <c r="O376" s="4"/>
-      <c r="P376" s="4"/>
-      <c r="Q376" s="4"/>
-      <c r="R376" s="4"/>
-      <c r="S376" s="4"/>
-      <c r="T376" s="4"/>
-      <c r="U376" s="4"/>
-      <c r="V376" s="4"/>
-      <c r="W376" s="4"/>
-      <c r="X376" s="4"/>
+      <c r="A376" s="8"/>
+      <c r="B376" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C376" s="9">
+        <v>100</v>
+      </c>
+      <c r="D376" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E376" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F376" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G376" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H376" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I376" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J376" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K376" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L376" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="M376" s="9">
+        <v>1</v>
+      </c>
+      <c r="N376" s="9">
+        <v>49</v>
+      </c>
+      <c r="O376" s="11"/>
+      <c r="P376" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q376" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R376" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S376" s="9">
+        <v>0</v>
+      </c>
+      <c r="T376" s="9">
+        <v>1</v>
+      </c>
+      <c r="U376" s="9">
+        <v>1</v>
+      </c>
+      <c r="V376" s="9">
+        <v>0</v>
+      </c>
+      <c r="W376" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X376" s="11"/>
       <c r="Y376" s="4"/>
       <c r="Z376" s="4"/>
       <c r="AA376" s="4"/>
@@ -29711,30 +29816,72 @@
       <c r="AG376" s="4"/>
     </row>
     <row r="377" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="4"/>
-      <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
-      <c r="E377" s="4"/>
-      <c r="F377" s="4"/>
-      <c r="G377" s="4"/>
-      <c r="H377" s="4"/>
-      <c r="I377" s="4"/>
-      <c r="J377" s="4"/>
-      <c r="K377" s="4"/>
-      <c r="L377" s="4"/>
-      <c r="M377" s="4"/>
-      <c r="N377" s="4"/>
-      <c r="O377" s="4"/>
-      <c r="P377" s="4"/>
-      <c r="Q377" s="4"/>
-      <c r="R377" s="4"/>
-      <c r="S377" s="4"/>
-      <c r="T377" s="4"/>
-      <c r="U377" s="4"/>
-      <c r="V377" s="4"/>
-      <c r="W377" s="4"/>
-      <c r="X377" s="4"/>
+      <c r="A377" s="8"/>
+      <c r="B377" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C377" s="9">
+        <v>100</v>
+      </c>
+      <c r="D377" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F377" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G377" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H377" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I377" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J377" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K377" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L377" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="M377" s="9">
+        <v>1</v>
+      </c>
+      <c r="N377" s="9">
+        <v>50</v>
+      </c>
+      <c r="O377" s="11"/>
+      <c r="P377" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q377" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R377" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S377" s="9">
+        <v>0</v>
+      </c>
+      <c r="T377" s="9">
+        <v>1</v>
+      </c>
+      <c r="U377" s="9">
+        <v>1</v>
+      </c>
+      <c r="V377" s="9">
+        <v>0</v>
+      </c>
+      <c r="W377" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X377" s="11"/>
       <c r="Y377" s="4"/>
       <c r="Z377" s="4"/>
       <c r="AA377" s="4"/>
@@ -29746,30 +29893,72 @@
       <c r="AG377" s="4"/>
     </row>
     <row r="378" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="4"/>
-      <c r="B378" s="4"/>
-      <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
-      <c r="E378" s="4"/>
-      <c r="F378" s="4"/>
-      <c r="G378" s="4"/>
-      <c r="H378" s="4"/>
-      <c r="I378" s="4"/>
-      <c r="J378" s="4"/>
-      <c r="K378" s="4"/>
-      <c r="L378" s="4"/>
-      <c r="M378" s="4"/>
-      <c r="N378" s="4"/>
-      <c r="O378" s="4"/>
-      <c r="P378" s="4"/>
-      <c r="Q378" s="4"/>
-      <c r="R378" s="4"/>
-      <c r="S378" s="4"/>
-      <c r="T378" s="4"/>
-      <c r="U378" s="4"/>
-      <c r="V378" s="4"/>
-      <c r="W378" s="4"/>
-      <c r="X378" s="4"/>
+      <c r="A378" s="8"/>
+      <c r="B378" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C378" s="9">
+        <v>100</v>
+      </c>
+      <c r="D378" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E378" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F378" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G378" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H378" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I378" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J378" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K378" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L378" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="M378" s="9">
+        <v>1</v>
+      </c>
+      <c r="N378" s="9">
+        <v>51</v>
+      </c>
+      <c r="O378" s="11"/>
+      <c r="P378" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q378" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R378" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S378" s="9">
+        <v>0</v>
+      </c>
+      <c r="T378" s="9">
+        <v>1</v>
+      </c>
+      <c r="U378" s="9">
+        <v>1</v>
+      </c>
+      <c r="V378" s="9">
+        <v>0</v>
+      </c>
+      <c r="W378" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X378" s="11"/>
       <c r="Y378" s="4"/>
       <c r="Z378" s="4"/>
       <c r="AA378" s="4"/>
@@ -29781,30 +29970,72 @@
       <c r="AG378" s="4"/>
     </row>
     <row r="379" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="4"/>
-      <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
-      <c r="E379" s="4"/>
-      <c r="F379" s="4"/>
-      <c r="G379" s="4"/>
-      <c r="H379" s="4"/>
-      <c r="I379" s="4"/>
-      <c r="J379" s="4"/>
-      <c r="K379" s="4"/>
-      <c r="L379" s="4"/>
-      <c r="M379" s="4"/>
-      <c r="N379" s="4"/>
-      <c r="O379" s="4"/>
-      <c r="P379" s="4"/>
-      <c r="Q379" s="4"/>
-      <c r="R379" s="4"/>
-      <c r="S379" s="4"/>
-      <c r="T379" s="4"/>
-      <c r="U379" s="4"/>
-      <c r="V379" s="4"/>
-      <c r="W379" s="4"/>
-      <c r="X379" s="4"/>
+      <c r="A379" s="8"/>
+      <c r="B379" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C379" s="9">
+        <v>100</v>
+      </c>
+      <c r="D379" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F379" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G379" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H379" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I379" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J379" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K379" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L379" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="M379" s="9">
+        <v>1</v>
+      </c>
+      <c r="N379" s="9">
+        <v>52</v>
+      </c>
+      <c r="O379" s="11"/>
+      <c r="P379" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q379" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R379" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S379" s="9">
+        <v>0</v>
+      </c>
+      <c r="T379" s="9">
+        <v>1</v>
+      </c>
+      <c r="U379" s="9">
+        <v>1</v>
+      </c>
+      <c r="V379" s="9">
+        <v>0</v>
+      </c>
+      <c r="W379" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X379" s="11"/>
       <c r="Y379" s="4"/>
       <c r="Z379" s="4"/>
       <c r="AA379" s="4"/>
@@ -29816,30 +30047,72 @@
       <c r="AG379" s="4"/>
     </row>
     <row r="380" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="4"/>
-      <c r="B380" s="4"/>
-      <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
-      <c r="E380" s="4"/>
-      <c r="F380" s="4"/>
-      <c r="G380" s="4"/>
-      <c r="H380" s="4"/>
-      <c r="I380" s="4"/>
-      <c r="J380" s="4"/>
-      <c r="K380" s="4"/>
-      <c r="L380" s="4"/>
-      <c r="M380" s="4"/>
-      <c r="N380" s="4"/>
-      <c r="O380" s="4"/>
-      <c r="P380" s="4"/>
-      <c r="Q380" s="4"/>
-      <c r="R380" s="4"/>
-      <c r="S380" s="4"/>
-      <c r="T380" s="4"/>
-      <c r="U380" s="4"/>
-      <c r="V380" s="4"/>
-      <c r="W380" s="4"/>
-      <c r="X380" s="4"/>
+      <c r="A380" s="8"/>
+      <c r="B380" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C380" s="9">
+        <v>100</v>
+      </c>
+      <c r="D380" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E380" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F380" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G380" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H380" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I380" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J380" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K380" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L380" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="M380" s="9">
+        <v>1</v>
+      </c>
+      <c r="N380" s="9">
+        <v>53</v>
+      </c>
+      <c r="O380" s="11"/>
+      <c r="P380" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q380" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R380" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S380" s="9">
+        <v>0</v>
+      </c>
+      <c r="T380" s="9">
+        <v>1</v>
+      </c>
+      <c r="U380" s="9">
+        <v>1</v>
+      </c>
+      <c r="V380" s="9">
+        <v>0</v>
+      </c>
+      <c r="W380" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X380" s="11"/>
       <c r="Y380" s="4"/>
       <c r="Z380" s="4"/>
       <c r="AA380" s="4"/>
@@ -52320,6 +52593,251 @@
       <c r="AF1022" s="4"/>
       <c r="AG1022" s="4"/>
     </row>
+    <row r="1023" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1023" s="4"/>
+      <c r="B1023" s="4"/>
+      <c r="C1023" s="4"/>
+      <c r="D1023" s="4"/>
+      <c r="E1023" s="4"/>
+      <c r="F1023" s="4"/>
+      <c r="G1023" s="4"/>
+      <c r="H1023" s="4"/>
+      <c r="I1023" s="4"/>
+      <c r="J1023" s="4"/>
+      <c r="K1023" s="4"/>
+      <c r="L1023" s="4"/>
+      <c r="M1023" s="4"/>
+      <c r="N1023" s="4"/>
+      <c r="O1023" s="4"/>
+      <c r="P1023" s="4"/>
+      <c r="Q1023" s="4"/>
+      <c r="R1023" s="4"/>
+      <c r="S1023" s="4"/>
+      <c r="T1023" s="4"/>
+      <c r="U1023" s="4"/>
+      <c r="V1023" s="4"/>
+      <c r="W1023" s="4"/>
+      <c r="X1023" s="4"/>
+      <c r="Y1023" s="4"/>
+      <c r="Z1023" s="4"/>
+      <c r="AA1023" s="4"/>
+      <c r="AB1023" s="4"/>
+      <c r="AC1023" s="4"/>
+      <c r="AD1023" s="4"/>
+      <c r="AE1023" s="4"/>
+      <c r="AF1023" s="4"/>
+      <c r="AG1023" s="4"/>
+    </row>
+    <row r="1024" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1024" s="4"/>
+      <c r="B1024" s="4"/>
+      <c r="C1024" s="4"/>
+      <c r="D1024" s="4"/>
+      <c r="E1024" s="4"/>
+      <c r="F1024" s="4"/>
+      <c r="G1024" s="4"/>
+      <c r="H1024" s="4"/>
+      <c r="I1024" s="4"/>
+      <c r="J1024" s="4"/>
+      <c r="K1024" s="4"/>
+      <c r="L1024" s="4"/>
+      <c r="M1024" s="4"/>
+      <c r="N1024" s="4"/>
+      <c r="O1024" s="4"/>
+      <c r="P1024" s="4"/>
+      <c r="Q1024" s="4"/>
+      <c r="R1024" s="4"/>
+      <c r="S1024" s="4"/>
+      <c r="T1024" s="4"/>
+      <c r="U1024" s="4"/>
+      <c r="V1024" s="4"/>
+      <c r="W1024" s="4"/>
+      <c r="X1024" s="4"/>
+      <c r="Y1024" s="4"/>
+      <c r="Z1024" s="4"/>
+      <c r="AA1024" s="4"/>
+      <c r="AB1024" s="4"/>
+      <c r="AC1024" s="4"/>
+      <c r="AD1024" s="4"/>
+      <c r="AE1024" s="4"/>
+      <c r="AF1024" s="4"/>
+      <c r="AG1024" s="4"/>
+    </row>
+    <row r="1025" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1025" s="4"/>
+      <c r="B1025" s="4"/>
+      <c r="C1025" s="4"/>
+      <c r="D1025" s="4"/>
+      <c r="E1025" s="4"/>
+      <c r="F1025" s="4"/>
+      <c r="G1025" s="4"/>
+      <c r="H1025" s="4"/>
+      <c r="I1025" s="4"/>
+      <c r="J1025" s="4"/>
+      <c r="K1025" s="4"/>
+      <c r="L1025" s="4"/>
+      <c r="M1025" s="4"/>
+      <c r="N1025" s="4"/>
+      <c r="O1025" s="4"/>
+      <c r="P1025" s="4"/>
+      <c r="Q1025" s="4"/>
+      <c r="R1025" s="4"/>
+      <c r="S1025" s="4"/>
+      <c r="T1025" s="4"/>
+      <c r="U1025" s="4"/>
+      <c r="V1025" s="4"/>
+      <c r="W1025" s="4"/>
+      <c r="X1025" s="4"/>
+      <c r="Y1025" s="4"/>
+      <c r="Z1025" s="4"/>
+      <c r="AA1025" s="4"/>
+      <c r="AB1025" s="4"/>
+      <c r="AC1025" s="4"/>
+      <c r="AD1025" s="4"/>
+      <c r="AE1025" s="4"/>
+      <c r="AF1025" s="4"/>
+      <c r="AG1025" s="4"/>
+    </row>
+    <row r="1026" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1026" s="4"/>
+      <c r="B1026" s="4"/>
+      <c r="C1026" s="4"/>
+      <c r="D1026" s="4"/>
+      <c r="E1026" s="4"/>
+      <c r="F1026" s="4"/>
+      <c r="G1026" s="4"/>
+      <c r="H1026" s="4"/>
+      <c r="I1026" s="4"/>
+      <c r="J1026" s="4"/>
+      <c r="K1026" s="4"/>
+      <c r="L1026" s="4"/>
+      <c r="M1026" s="4"/>
+      <c r="N1026" s="4"/>
+      <c r="O1026" s="4"/>
+      <c r="P1026" s="4"/>
+      <c r="Q1026" s="4"/>
+      <c r="R1026" s="4"/>
+      <c r="S1026" s="4"/>
+      <c r="T1026" s="4"/>
+      <c r="U1026" s="4"/>
+      <c r="V1026" s="4"/>
+      <c r="W1026" s="4"/>
+      <c r="X1026" s="4"/>
+      <c r="Y1026" s="4"/>
+      <c r="Z1026" s="4"/>
+      <c r="AA1026" s="4"/>
+      <c r="AB1026" s="4"/>
+      <c r="AC1026" s="4"/>
+      <c r="AD1026" s="4"/>
+      <c r="AE1026" s="4"/>
+      <c r="AF1026" s="4"/>
+      <c r="AG1026" s="4"/>
+    </row>
+    <row r="1027" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1027" s="4"/>
+      <c r="B1027" s="4"/>
+      <c r="C1027" s="4"/>
+      <c r="D1027" s="4"/>
+      <c r="E1027" s="4"/>
+      <c r="F1027" s="4"/>
+      <c r="G1027" s="4"/>
+      <c r="H1027" s="4"/>
+      <c r="I1027" s="4"/>
+      <c r="J1027" s="4"/>
+      <c r="K1027" s="4"/>
+      <c r="L1027" s="4"/>
+      <c r="M1027" s="4"/>
+      <c r="N1027" s="4"/>
+      <c r="O1027" s="4"/>
+      <c r="P1027" s="4"/>
+      <c r="Q1027" s="4"/>
+      <c r="R1027" s="4"/>
+      <c r="S1027" s="4"/>
+      <c r="T1027" s="4"/>
+      <c r="U1027" s="4"/>
+      <c r="V1027" s="4"/>
+      <c r="W1027" s="4"/>
+      <c r="X1027" s="4"/>
+      <c r="Y1027" s="4"/>
+      <c r="Z1027" s="4"/>
+      <c r="AA1027" s="4"/>
+      <c r="AB1027" s="4"/>
+      <c r="AC1027" s="4"/>
+      <c r="AD1027" s="4"/>
+      <c r="AE1027" s="4"/>
+      <c r="AF1027" s="4"/>
+      <c r="AG1027" s="4"/>
+    </row>
+    <row r="1028" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1028" s="4"/>
+      <c r="B1028" s="4"/>
+      <c r="C1028" s="4"/>
+      <c r="D1028" s="4"/>
+      <c r="E1028" s="4"/>
+      <c r="F1028" s="4"/>
+      <c r="G1028" s="4"/>
+      <c r="H1028" s="4"/>
+      <c r="I1028" s="4"/>
+      <c r="J1028" s="4"/>
+      <c r="K1028" s="4"/>
+      <c r="L1028" s="4"/>
+      <c r="M1028" s="4"/>
+      <c r="N1028" s="4"/>
+      <c r="O1028" s="4"/>
+      <c r="P1028" s="4"/>
+      <c r="Q1028" s="4"/>
+      <c r="R1028" s="4"/>
+      <c r="S1028" s="4"/>
+      <c r="T1028" s="4"/>
+      <c r="U1028" s="4"/>
+      <c r="V1028" s="4"/>
+      <c r="W1028" s="4"/>
+      <c r="X1028" s="4"/>
+      <c r="Y1028" s="4"/>
+      <c r="Z1028" s="4"/>
+      <c r="AA1028" s="4"/>
+      <c r="AB1028" s="4"/>
+      <c r="AC1028" s="4"/>
+      <c r="AD1028" s="4"/>
+      <c r="AE1028" s="4"/>
+      <c r="AF1028" s="4"/>
+      <c r="AG1028" s="4"/>
+    </row>
+    <row r="1029" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1029" s="4"/>
+      <c r="B1029" s="4"/>
+      <c r="C1029" s="4"/>
+      <c r="D1029" s="4"/>
+      <c r="E1029" s="4"/>
+      <c r="F1029" s="4"/>
+      <c r="G1029" s="4"/>
+      <c r="H1029" s="4"/>
+      <c r="I1029" s="4"/>
+      <c r="J1029" s="4"/>
+      <c r="K1029" s="4"/>
+      <c r="L1029" s="4"/>
+      <c r="M1029" s="4"/>
+      <c r="N1029" s="4"/>
+      <c r="O1029" s="4"/>
+      <c r="P1029" s="4"/>
+      <c r="Q1029" s="4"/>
+      <c r="R1029" s="4"/>
+      <c r="S1029" s="4"/>
+      <c r="T1029" s="4"/>
+      <c r="U1029" s="4"/>
+      <c r="V1029" s="4"/>
+      <c r="W1029" s="4"/>
+      <c r="X1029" s="4"/>
+      <c r="Y1029" s="4"/>
+      <c r="Z1029" s="4"/>
+      <c r="AA1029" s="4"/>
+      <c r="AB1029" s="4"/>
+      <c r="AC1029" s="4"/>
+      <c r="AD1029" s="4"/>
+      <c r="AE1029" s="4"/>
+      <c r="AF1029" s="4"/>
+      <c r="AG1029" s="4"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AG1022" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="4">
